--- a/cleansing/tests/resources/master/network/1期Aシステム.xlsx
+++ b/cleansing/tests/resources/master/network/1期Aシステム.xlsx
@@ -13,22 +13,19 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1535670327" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1535670327" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1535670327" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1535670327"/>
+      <pm:revision xmlns:pm="smNativeData" day="1535923981" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1535923981" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1535923981" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1535923981"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ネットワーク管理台帳</t>
-  </si>
-  <si>
-    <t>搬入日</t>
   </si>
   <si>
     <t>設置場所</t>
@@ -91,7 +88,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535670327" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -106,7 +103,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535670327" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -122,7 +119,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535670327" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -144,7 +141,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535670327" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00DDEBF7"/>
+            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00DDEBF7"/>
           </ext>
         </extLst>
       </patternFill>
@@ -155,7 +152,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535670327" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
+            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
           </ext>
         </extLst>
       </patternFill>
@@ -166,7 +163,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535670327" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="100" bgClr="004F81BD"/>
+            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="100" bgClr="004F81BD"/>
           </ext>
         </extLst>
       </patternFill>
@@ -188,7 +185,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535670327"/>
+          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
         </ext>
       </extLst>
     </border>
@@ -207,7 +204,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535670327">
+          <pm:border xmlns:pm="smNativeData" id="1535923981">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
@@ -230,7 +227,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535670327"/>
+          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
         </ext>
       </extLst>
     </border>
@@ -249,7 +246,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535670327"/>
+          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
         </ext>
       </extLst>
     </border>
@@ -259,11 +256,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -276,10 +270,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1535670327" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1535923981" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1535670327" count="6">
+      <pm:colors xmlns:pm="smNativeData" id="1535923981" count="6">
         <pm:color name="色 24" rgb="DDEBF7"/>
         <pm:color name="色 25" rgb="9BC2E6"/>
         <pm:color name="色 26" rgb="5B9BD5"/>
@@ -293,16 +287,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:H6" totalsRowShown="0">
-  <autoFilter ref="B3:H6"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="搬入日" totalsRowLabel="合計"/>
-    <tableColumn id="2" name="設置場所"/>
-    <tableColumn id="3" name="ホスト名"/>
-    <tableColumn id="4" name="上位/下位"/>
-    <tableColumn id="5" name="機種"/>
-    <tableColumn id="6" name="型番"/>
-    <tableColumn id="7" name="システム" totalsRowFunction="sum"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:G6" totalsRowShown="0">
+  <autoFilter ref="B3:G6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="設置場所" totalsRowLabel="合計"/>
+    <tableColumn id="2" name="ホスト名"/>
+    <tableColumn id="3" name="上位/下位"/>
+    <tableColumn id="4" name="機種"/>
+    <tableColumn id="5" name="型番"/>
+    <tableColumn id="6" name="システム" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,18 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="14.745455" customWidth="1"/>
-    <col min="4" max="4" width="9.872727" customWidth="1"/>
-    <col min="5" max="7" width="12.127273" customWidth="1"/>
-    <col min="8" max="8" width="22.745455" customWidth="1"/>
+    <col min="2" max="2" width="14.745455" customWidth="1"/>
+    <col min="3" max="3" width="9.872727" customWidth="1"/>
+    <col min="4" max="6" width="12.127273" customWidth="1"/>
+    <col min="7" max="7" width="22.745455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -554,75 +547,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1" t="n">
-        <v>43282</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1535670327" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1535923981" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -631,10 +616,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1535670327" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1535670327" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1535670327" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1535670327" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1535923981" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1535923981" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1535923981" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1535923981" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -643,7 +628,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1535670327" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1535923981" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
